--- a/True copy.xlsx
+++ b/True copy.xlsx
@@ -402,12 +402,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="51.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="52.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -429,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
